--- a/data/docs/planeacion_bucaramanga_barrios_comunas.xlsx
+++ b/data/docs/planeacion_bucaramanga_barrios_comunas.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\MONO\OTICFinder\OTICFinder\dist\oticfinder\data\docs\planeacion_bucaramanga_barrios_comunas.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\MONO\OTICFinder\data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE96CEB-0550-4C23-8D30-7A15476445D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E252D6-AE0B-4D99-A7A9-EE3BD9625DF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIVISION_POLITICA_BUCARAMANGA" sheetId="1" r:id="rId1"/>
-    <sheet name="DIVISION_POLITICA_FLORIDABLANCA" sheetId="2" r:id="rId2"/>
+    <sheet name="DIVISION_POLITICA_FLORIDABLANCA" sheetId="9" r:id="rId2"/>
     <sheet name="DIVISION_POLITICA_GIRON" sheetId="3" r:id="rId3"/>
     <sheet name="DIVISION_POLITICA_PIEDECUESTA" sheetId="4" r:id="rId4"/>
     <sheet name="CIUDADES" sheetId="5" r:id="rId5"/>
@@ -23,7 +23,7 @@
     <sheet name="Recuperado_Hoja1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DIVISION_POLITICA_BUCARAMANGA!$D$1:$D$956</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DIVISION_POLITICA_BUCARAMANGA!$D$1:$D$994</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4568" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="1733">
   <si>
     <t>NUMERO_COMUNA</t>
   </si>
@@ -5360,7 +5360,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5371,12 +5371,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -5407,7 +5401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5441,10 +5435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5770,10 +5760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:I994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:XFD339"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6898,7 +6888,7 @@
       <c r="D46" s="7" t="s">
         <v>1730</v>
       </c>
-      <c r="E46" s="27"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -12038,8 +12028,8 @@
         <v>1696</v>
       </c>
       <c r="E256" s="14"/>
-      <c r="F256" s="25"/>
-      <c r="G256" s="26"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="22"/>
       <c r="H256" s="5" t="s">
         <v>14</v>
       </c>
@@ -15750,8 +15740,160 @@
       <c r="A956" s="17"/>
       <c r="D956" s="18"/>
     </row>
+    <row r="957" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A957" s="17"/>
+      <c r="D957" s="18"/>
+    </row>
+    <row r="958" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="17"/>
+      <c r="D958" s="18"/>
+    </row>
+    <row r="959" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A959" s="17"/>
+      <c r="D959" s="18"/>
+    </row>
+    <row r="960" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="17"/>
+      <c r="D960" s="18"/>
+    </row>
+    <row r="961" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A961" s="17"/>
+      <c r="D961" s="18"/>
+    </row>
+    <row r="962" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="17"/>
+      <c r="D962" s="18"/>
+    </row>
+    <row r="963" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="17"/>
+      <c r="D963" s="18"/>
+    </row>
+    <row r="964" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="17"/>
+      <c r="D964" s="18"/>
+    </row>
+    <row r="965" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="17"/>
+      <c r="D965" s="18"/>
+    </row>
+    <row r="966" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="17"/>
+      <c r="D966" s="18"/>
+    </row>
+    <row r="967" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="17"/>
+      <c r="D967" s="18"/>
+    </row>
+    <row r="968" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="17"/>
+      <c r="D968" s="18"/>
+    </row>
+    <row r="969" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="17"/>
+      <c r="D969" s="18"/>
+    </row>
+    <row r="970" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="17"/>
+      <c r="D970" s="18"/>
+    </row>
+    <row r="971" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="17"/>
+      <c r="D971" s="18"/>
+    </row>
+    <row r="972" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="17"/>
+      <c r="D972" s="18"/>
+    </row>
+    <row r="973" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="17"/>
+      <c r="D973" s="18"/>
+    </row>
+    <row r="974" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="17"/>
+      <c r="D974" s="18"/>
+    </row>
+    <row r="975" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="17"/>
+      <c r="D975" s="18"/>
+    </row>
+    <row r="976" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="17"/>
+      <c r="D976" s="18"/>
+    </row>
+    <row r="977" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="17"/>
+      <c r="D977" s="18"/>
+    </row>
+    <row r="978" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="17"/>
+      <c r="D978" s="18"/>
+    </row>
+    <row r="979" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="17"/>
+      <c r="D979" s="18"/>
+    </row>
+    <row r="980" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="17"/>
+      <c r="D980" s="18"/>
+    </row>
+    <row r="981" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="17"/>
+      <c r="D981" s="18"/>
+    </row>
+    <row r="982" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="17"/>
+      <c r="D982" s="18"/>
+    </row>
+    <row r="983" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="17"/>
+      <c r="D983" s="18"/>
+    </row>
+    <row r="984" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="17"/>
+      <c r="D984" s="18"/>
+    </row>
+    <row r="985" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="17"/>
+      <c r="D985" s="18"/>
+    </row>
+    <row r="986" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="17"/>
+      <c r="D986" s="18"/>
+    </row>
+    <row r="987" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="17"/>
+      <c r="D987" s="18"/>
+    </row>
+    <row r="988" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="17"/>
+      <c r="D988" s="18"/>
+    </row>
+    <row r="989" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="17"/>
+      <c r="D989" s="18"/>
+    </row>
+    <row r="990" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="17"/>
+      <c r="D990" s="18"/>
+    </row>
+    <row r="991" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="17"/>
+      <c r="D991" s="18"/>
+    </row>
+    <row r="992" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="17"/>
+      <c r="D992" s="18"/>
+    </row>
+    <row r="993" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A993" s="17"/>
+      <c r="D993" s="18"/>
+    </row>
+    <row r="994" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="17"/>
+      <c r="D994" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D956" xr:uid="{2166FCAD-00E9-4323-B006-39B912DC00D9}"/>
+  <autoFilter ref="D1:D994" xr:uid="{2166FCAD-00E9-4323-B006-39B912DC00D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
@@ -15759,2738 +15901,1754 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B3066B-2E44-441A-B7A7-F3964624BD02}">
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f t="array" ref="C2">A2 &amp; B2</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D2" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>372</v>
       </c>
-      <c r="I2" s="4" t="str">
-        <f t="array" ref="I2">H2&amp;D2</f>
-        <v>BARRIO abadias</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="I2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="19" t="str">
-        <f t="array" ref="C3">A3 &amp; B3</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D3" t="s">
         <v>377</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" t="s">
         <v>370</v>
       </c>
-      <c r="I3" s="20" t="str">
-        <f t="array" ref="I3">H3&amp;D3</f>
-        <v>A. URBANO Altos de Limoncito</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="I3" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" t="s">
         <v>374</v>
       </c>
-      <c r="C4" s="19" t="str">
-        <f t="array" ref="C4">A4 &amp; B4</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D4" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
+      <c r="H4" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="20" t="str">
-        <f t="array" ref="I4">H4&amp;D4</f>
-        <v>A. URBANO Primavera II</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="I4" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f t="array" ref="C5">A5 &amp; B5</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D5" t="s">
         <v>379</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>380</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>372</v>
       </c>
-      <c r="I5" s="4" t="str">
-        <f t="array" ref="I5">H5&amp;D5</f>
-        <v>BARRIO altamira</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="I5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f t="array" ref="C6">A6 &amp; B6</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D6" t="s">
         <v>381</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>372</v>
       </c>
-      <c r="I6" s="4" t="str">
-        <f t="array" ref="I6">H6&amp;D6</f>
-        <v>BARRIO la ronda</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="I6" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>373</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f t="array" ref="C7">A7 &amp; B7</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D7" t="s">
         <v>383</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>384</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>372</v>
       </c>
-      <c r="I7" s="4" t="str">
-        <f t="array" ref="I7">H7&amp;D7</f>
-        <v>BARRIO limoncito</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="I7" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="5" t="str">
-        <f t="array" ref="C8">A8 &amp; B8</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D8" t="s">
         <v>385</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>386</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>372</v>
       </c>
-      <c r="I8" s="4" t="str">
-        <f t="array" ref="I8">H8&amp;D8</f>
-        <v>BARRIO los andes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="I8" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="19" t="str">
-        <f t="array" ref="C9">A9 &amp; B9</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D9" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" t="s">
         <v>370</v>
       </c>
-      <c r="I9" s="20" t="str">
-        <f t="array" ref="I9">H9&amp;D9</f>
-        <v>A. URBANO Los puentes</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="I9" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f t="array" ref="C10">A10 &amp; B10</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D10" t="s">
         <v>390</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>391</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>372</v>
       </c>
-      <c r="I10" s="4" t="str">
-        <f t="array" ref="I10">H10&amp;D10</f>
-        <v>BARRIO cañaveral occidental</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="I10" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>392</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>393</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f t="array" ref="C11">A11 &amp; B11</f>
-        <v>25. Bosques - Molinos</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D11" t="s">
         <v>394</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>395</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>372</v>
       </c>
-      <c r="I11" s="4" t="str">
-        <f t="array" ref="I11">H11&amp;D11</f>
-        <v>BARRIO el bosque</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="I11" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <f t="array" ref="C12">A12 &amp; B12</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D12" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>372</v>
       </c>
-      <c r="I12" s="4" t="str">
-        <f t="array" ref="I12">H12&amp;D12</f>
-        <v>BARRIO ginebra</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="I12" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>392</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f t="array" ref="C13">A13 &amp; B13</f>
-        <v>25. Bosques - Molinos</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D13" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s">
         <v>398</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>372</v>
       </c>
-      <c r="I13" s="4" t="str">
-        <f t="array" ref="I13">H13&amp;D13</f>
-        <v>BARRIO molinos</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="I13" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f t="array" ref="C14">A14 &amp; B14</f>
-        <v>25. Bosques - Molinos</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D14" t="s">
         <v>399</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s">
         <v>400</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>372</v>
       </c>
-      <c r="I14" s="4" t="str">
-        <f t="array" ref="I14">H14&amp;D14</f>
-        <v>BARRIO palomitas</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="I14" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>392</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>393</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <f t="array" ref="C15">A15 &amp; B15</f>
-        <v>25. Bosques - Molinos</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D15" t="s">
         <v>401</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s">
         <v>402</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>372</v>
       </c>
-      <c r="I15" s="4" t="str">
-        <f t="array" ref="I15">H15&amp;D15</f>
-        <v>BARRIO niza</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="I15" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f t="array" ref="C16">A16 &amp; B16</f>
-        <v>25. Bosques - Molinos</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D16" t="s">
         <v>403</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>404</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>372</v>
       </c>
-      <c r="I16" s="4" t="str">
-        <f t="array" ref="I16">H16&amp;D16</f>
-        <v>BARRIO trinitarios</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="I16" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>392</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="19" t="str">
-        <f t="array" ref="C17">A17 &amp; B17</f>
-        <v>25. Bosques - Molinos</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D17" t="s">
         <v>405</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="H17" t="s">
         <v>370</v>
       </c>
-      <c r="I17" s="20" t="str">
-        <f t="array" ref="I17">H17&amp;D17</f>
-        <v>A. URBANO El Progreso</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-    </row>
-    <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="I17" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>407</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f t="array" ref="C18">A18 &amp; B18</f>
-        <v>23. Bucarica-Caracoli</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D18" t="s">
         <v>408</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>409</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>372</v>
       </c>
-      <c r="I18" s="4" t="str">
-        <f t="array" ref="I18">H18&amp;D18</f>
-        <v>BARRIO bucarica</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="I18" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>406</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>407</v>
       </c>
-      <c r="C19" s="5" t="str">
-        <f t="array" ref="C19">A19 &amp; B19</f>
-        <v>23. Bucarica-Caracoli</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D19" t="s">
         <v>410</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>411</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>372</v>
       </c>
-      <c r="I19" s="4" t="str">
-        <f t="array" ref="I19">H19&amp;D19</f>
-        <v>BARRIO caracoli</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="I19" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>412</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>413</v>
       </c>
-      <c r="C20" s="5" t="str">
-        <f t="array" ref="C20">A20 &amp; B20</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D20" t="s">
         <v>414</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s">
         <v>415</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>372</v>
       </c>
-      <c r="I20" s="4" t="str">
-        <f t="array" ref="I20">H20&amp;D20</f>
-        <v>BARRIO caldas</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="I20" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="5" t="str">
-        <f t="array" ref="C21">A21 &amp; B21</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D21" t="s">
         <v>416</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s">
         <v>417</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>372</v>
       </c>
-      <c r="I21" s="4" t="str">
-        <f t="array" ref="I21">H21&amp;D21</f>
-        <v>BARRIO el reposo</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="I21" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>412</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>413</v>
       </c>
-      <c r="C22" s="5" t="str">
-        <f t="array" ref="C22">A22 &amp; B22</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D22" t="s">
         <v>418</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5" t="s">
+      <c r="F22" t="s">
         <v>419</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>372</v>
       </c>
-      <c r="I22" s="4" t="str">
-        <f t="array" ref="I22">H22&amp;D22</f>
-        <v>BARRIO fatima</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="I22" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>412</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>413</v>
       </c>
-      <c r="C23" s="5" t="str">
-        <f t="array" ref="C23">A23 &amp; B23</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D23" t="s">
         <v>420</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>421</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>372</v>
       </c>
-      <c r="I23" s="4" t="str">
-        <f t="array" ref="I23">H23&amp;D23</f>
-        <v>BARRIO la trinidad</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="I23" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>412</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>413</v>
       </c>
-      <c r="C24" s="5" t="str">
-        <f t="array" ref="C24">A24 &amp; B24</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D24" t="s">
         <v>422</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" t="s">
         <v>423</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>372</v>
       </c>
-      <c r="I24" s="4" t="str">
-        <f t="array" ref="I24">H24&amp;D24</f>
-        <v>BARRIO zapamanga</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="I24" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>412</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" t="s">
         <v>413</v>
       </c>
-      <c r="C25" s="19" t="str">
-        <f t="array" ref="C25">A25 &amp; B25</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D25" t="s">
         <v>424</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
+      <c r="H25" t="s">
         <v>370</v>
       </c>
-      <c r="I25" s="20" t="str">
-        <f t="array" ref="I25">H25&amp;D25</f>
-        <v>A. URBANO Asdeflor</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="I25" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>412</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" t="s">
         <v>413</v>
       </c>
-      <c r="C26" s="19" t="str">
-        <f t="array" ref="C26">A26 &amp; B26</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C26" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D26" t="s">
         <v>425</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
+      <c r="H26" t="s">
         <v>370</v>
       </c>
-      <c r="I26" s="20" t="str">
-        <f t="array" ref="I26">H26&amp;D26</f>
-        <v>A. URBANO Belencito</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="I26" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>412</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" t="s">
         <v>413</v>
       </c>
-      <c r="C27" s="19" t="str">
-        <f t="array" ref="C27">A27 &amp; B27</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="C27" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D27" t="s">
         <v>426</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19" t="s">
+      <c r="H27" t="s">
         <v>370</v>
       </c>
-      <c r="I27" s="20" t="str">
-        <f t="array" ref="I27">H27&amp;D27</f>
-        <v>A. URBANO Los Olivos</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="I27" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>412</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" t="s">
         <v>413</v>
       </c>
-      <c r="C28" s="19" t="str">
-        <f t="array" ref="C28">A28 &amp; B28</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="C28" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D28" t="s">
         <v>427</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
+      <c r="H28" t="s">
         <v>370</v>
       </c>
-      <c r="I28" s="20" t="str">
-        <f t="array" ref="I28">H28&amp;D28</f>
-        <v>A. URBANO Santa Ines</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="I28" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>412</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" t="s">
         <v>413</v>
       </c>
-      <c r="C29" s="19" t="str">
-        <f t="array" ref="C29">A29 &amp; B29</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="C29" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D29" t="s">
         <v>428</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19" t="s">
+      <c r="H29" t="s">
         <v>370</v>
       </c>
-      <c r="I29" s="20" t="str">
-        <f t="array" ref="I29">H29&amp;D29</f>
-        <v>A. URBANO Robles Oriental</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="I29" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>412</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" t="s">
         <v>413</v>
       </c>
-      <c r="C30" s="19" t="str">
-        <f t="array" ref="C30">A30 &amp; B30</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="C30" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D30" t="s">
         <v>429</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" t="s">
         <v>370</v>
       </c>
-      <c r="I30" s="20" t="str">
-        <f t="array" ref="I30">H30&amp;D30</f>
-        <v>A. URBANO Cerros del Reposo</v>
-      </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="I30" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="19" t="str">
-        <f t="array" ref="C31">A31 &amp; B31</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="C31" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D31" t="s">
         <v>430</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" t="s">
         <v>370</v>
       </c>
-      <c r="I31" s="20" t="str">
-        <f t="array" ref="I31">H31&amp;D31</f>
-        <v>A. URBANO Las Esmeral</v>
-      </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="I31" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>412</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" t="s">
         <v>413</v>
       </c>
-      <c r="C32" s="19" t="str">
-        <f t="array" ref="C32">A32 &amp; B32</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C32" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D32" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
+      <c r="H32" t="s">
         <v>370</v>
       </c>
-      <c r="I32" s="20" t="str">
-        <f t="array" ref="I32">H32&amp;D32</f>
-        <v>A. URBANO Los Laureles</v>
-      </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="I32" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="19" t="str">
-        <f t="array" ref="C33">A33 &amp; B33</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="C33" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D33" t="s">
         <v>431</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
+      <c r="H33" t="s">
         <v>370</v>
       </c>
-      <c r="I33" s="20" t="str">
-        <f t="array" ref="I33">H33&amp;D33</f>
-        <v>A. URBANO Palmeras I</v>
-      </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="I33" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>412</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" t="s">
         <v>413</v>
       </c>
-      <c r="C34" s="19" t="str">
-        <f t="array" ref="C34">A34 &amp; B34</f>
-        <v>24. Caldas - Reposo</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="C34" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D34" t="s">
         <v>432</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="H34" t="s">
         <v>370</v>
       </c>
-      <c r="I34" s="20" t="str">
-        <f t="array" ref="I34">H34&amp;D34</f>
-        <v>A. URBANO Palmeras II</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-    </row>
-    <row r="35" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="I34" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>388</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="5" t="str">
-        <f t="array" ref="C35">A35 &amp; B35</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D35" t="s">
         <v>433</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5" t="s">
+      <c r="F35" t="s">
         <v>434</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
+      <c r="H35" t="s">
         <v>372</v>
       </c>
-      <c r="I35" s="4" t="str">
-        <f t="array" ref="I35">H35&amp;D35</f>
-        <v>BARRIO cañaveral</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="I35" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>388</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>389</v>
       </c>
-      <c r="C36" s="5" t="str">
-        <f t="array" ref="C36">A36 &amp; B36</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D36" t="s">
         <v>435</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5" t="s">
+      <c r="F36" t="s">
         <v>436</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
+      <c r="H36" t="s">
         <v>372</v>
       </c>
-      <c r="I36" s="4" t="str">
-        <f t="array" ref="I36">H36&amp;D36</f>
-        <v>BARRIO cañaveral oriental</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="I36" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>388</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>389</v>
       </c>
-      <c r="C37" s="5" t="str">
-        <f t="array" ref="C37">A37 &amp; B37</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D37" t="s">
         <v>437</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5" t="s">
+      <c r="F37" t="s">
         <v>438</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5" t="s">
+      <c r="H37" t="s">
         <v>372</v>
       </c>
-      <c r="I37" s="4" t="str">
-        <f t="array" ref="I37">H37&amp;D37</f>
-        <v>BARRIO versalles</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="I37" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>373</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>374</v>
       </c>
-      <c r="C38" s="5" t="str">
-        <f t="array" ref="C38">A38 &amp; B38</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D38" t="s">
         <v>439</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5" t="s">
+      <c r="F38" t="s">
         <v>440</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
+      <c r="H38" t="s">
         <v>372</v>
       </c>
-      <c r="I38" s="4" t="str">
-        <f t="array" ref="I38">H38&amp;D38</f>
-        <v>BARRIO casco antiguo</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="I38" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>441</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>442</v>
       </c>
-      <c r="C39" s="5" t="str">
-        <f t="array" ref="C39">A39 &amp; B39</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D39" t="s">
         <v>443</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5" t="s">
+      <c r="F39" t="s">
         <v>444</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
+      <c r="H39" t="s">
         <v>372</v>
       </c>
-      <c r="I39" s="4" t="str">
-        <f t="array" ref="I39">H39&amp;D39</f>
-        <v>BARRIO el carmen</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="I39" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>441</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>442</v>
       </c>
-      <c r="C40" s="5" t="str">
-        <f t="array" ref="C40">A40 &amp; B40</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D40" t="s">
         <v>445</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5" t="s">
+      <c r="F40" t="s">
         <v>446</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
+      <c r="H40" t="s">
         <v>372</v>
       </c>
-      <c r="I40" s="4" t="str">
-        <f t="array" ref="I40">H40&amp;D40</f>
-        <v>BARRIO la cumbre</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="I40" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>442</v>
       </c>
-      <c r="C41" s="5" t="str">
-        <f t="array" ref="C41">A41 &amp; B41</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D41" t="s">
         <v>447</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="s">
+      <c r="F41" t="s">
         <v>448</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
+      <c r="H41" t="s">
         <v>372</v>
       </c>
-      <c r="I41" s="4" t="str">
-        <f t="array" ref="I41">H41&amp;D41</f>
-        <v>BARRIO la hacienda</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="I41" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>441</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" t="s">
         <v>442</v>
       </c>
-      <c r="C42" s="19" t="str">
-        <f t="array" ref="C42">A42 &amp; B42</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="C42" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D42" t="s">
         <v>449</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19" t="s">
+      <c r="H42" t="s">
         <v>370</v>
       </c>
-      <c r="I42" s="20" t="str">
-        <f t="array" ref="I42">H42&amp;D42</f>
-        <v>A. URBANO El Santuario</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-    </row>
-    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="I42" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>441</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" t="s">
         <v>442</v>
       </c>
-      <c r="C43" s="19" t="str">
-        <f t="array" ref="C43">A43 &amp; B43</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="C43" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D43" t="s">
         <v>450</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19" t="s">
+      <c r="H43" t="s">
         <v>370</v>
       </c>
-      <c r="I43" s="20" t="str">
-        <f t="array" ref="I43">H43&amp;D43</f>
-        <v>A. URBANO Miradores de Florida</v>
-      </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-    </row>
-    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="I43" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>441</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" t="s">
         <v>442</v>
       </c>
-      <c r="C44" s="19" t="str">
-        <f t="array" ref="C44">A44 &amp; B44</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="C44" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D44" t="s">
         <v>451</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19" t="s">
+      <c r="H44" t="s">
         <v>370</v>
       </c>
-      <c r="I44" s="20" t="str">
-        <f t="array" ref="I44">H44&amp;D44</f>
-        <v>A. URBANO Miradores de Campo</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="I44" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>441</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" t="s">
         <v>442</v>
       </c>
-      <c r="C45" s="19" t="str">
-        <f t="array" ref="C45">A45 &amp; B45</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="C45" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D45" t="s">
         <v>452</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19" t="s">
+      <c r="H45" t="s">
         <v>370</v>
       </c>
-      <c r="I45" s="20" t="str">
-        <f t="array" ref="I45">H45&amp;D45</f>
-        <v>A. URBANO Portal de la Hacienda</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-    </row>
-    <row r="46" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="I45" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" t="s">
         <v>442</v>
       </c>
-      <c r="C46" s="19" t="str">
-        <f t="array" ref="C46">A46 &amp; B46</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D46" s="19" t="s">
+      <c r="C46" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D46" t="s">
         <v>453</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19" t="s">
+      <c r="H46" t="s">
         <v>370</v>
       </c>
-      <c r="I46" s="20" t="str">
-        <f t="array" ref="I46">H46&amp;D46</f>
-        <v>A. URBANO Jardines de Getsemani</v>
-      </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-    </row>
-    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="I46" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>441</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" t="s">
         <v>442</v>
       </c>
-      <c r="C47" s="19" t="str">
-        <f t="array" ref="C47">A47 &amp; B47</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D47" s="19" t="s">
+      <c r="C47" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D47" t="s">
         <v>454</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19" t="s">
+      <c r="H47" t="s">
         <v>370</v>
       </c>
-      <c r="I47" s="20" t="str">
-        <f t="array" ref="I47">H47&amp;D47</f>
-        <v>A. URBANO Brisad de Florida Campestre</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-    </row>
-    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="I47" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>441</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" t="s">
         <v>442</v>
       </c>
-      <c r="C48" s="19" t="str">
-        <f t="array" ref="C48">A48 &amp; B48</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="C48" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D48" t="s">
         <v>455</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19" t="s">
+      <c r="H48" t="s">
         <v>370</v>
       </c>
-      <c r="I48" s="20" t="str">
-        <f t="array" ref="I48">H48&amp;D48</f>
-        <v>A. URBANO Ciudadela Campestre</v>
-      </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-    </row>
-    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="I48" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>441</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" t="s">
         <v>442</v>
       </c>
-      <c r="C49" s="19" t="str">
-        <f t="array" ref="C49">A49 &amp; B49</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D49" s="19" t="s">
+      <c r="C49" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D49" t="s">
         <v>456</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19" t="s">
+      <c r="H49" t="s">
         <v>370</v>
       </c>
-      <c r="I49" s="20" t="str">
-        <f t="array" ref="I49">H49&amp;D49</f>
-        <v>A. URBANO Miradores de la Cumbre</v>
-      </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-    </row>
-    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="I49" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>441</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" t="s">
         <v>442</v>
       </c>
-      <c r="C50" s="19" t="str">
-        <f t="array" ref="C50">A50 &amp; B50</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D50" s="19" t="s">
+      <c r="C50" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D50" t="s">
         <v>457</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19" t="s">
+      <c r="H50" t="s">
         <v>370</v>
       </c>
-      <c r="I50" s="20" t="str">
-        <f t="array" ref="I50">H50&amp;D50</f>
-        <v>A. URBANO Asovisur I</v>
-      </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-    </row>
-    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="I50" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" t="s">
         <v>442</v>
       </c>
-      <c r="C51" s="19" t="str">
-        <f t="array" ref="C51">A51 &amp; B51</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D51" s="19" t="s">
+      <c r="C51" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D51" t="s">
         <v>458</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19" t="s">
+      <c r="H51" t="s">
         <v>370</v>
       </c>
-      <c r="I51" s="20" t="str">
-        <f t="array" ref="I51">H51&amp;D51</f>
-        <v>A. URBANO Asovisur II</v>
-      </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-    </row>
-    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="I51" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>441</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" t="s">
         <v>442</v>
       </c>
-      <c r="C52" s="19" t="str">
-        <f t="array" ref="C52">A52 &amp; B52</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D52" s="19" t="s">
+      <c r="C52" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D52" t="s">
         <v>459</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19" t="s">
+      <c r="H52" t="s">
         <v>370</v>
       </c>
-      <c r="I52" s="20" t="str">
-        <f t="array" ref="I52">H52&amp;D52</f>
-        <v>A. URBANO Corpovisur I</v>
-      </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-    </row>
-    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="I52" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>441</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" t="s">
         <v>442</v>
       </c>
-      <c r="C53" s="19" t="str">
-        <f t="array" ref="C53">A53 &amp; B53</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D53" s="19" t="s">
+      <c r="C53" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D53" t="s">
         <v>460</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19" t="s">
+      <c r="H53" t="s">
         <v>370</v>
       </c>
-      <c r="I53" s="20" t="str">
-        <f t="array" ref="I53">H53&amp;D53</f>
-        <v>A. URBANO Corpovisur II</v>
-      </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-    </row>
-    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="I53" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>441</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" t="s">
         <v>442</v>
       </c>
-      <c r="C54" s="19" t="str">
-        <f t="array" ref="C54">A54 &amp; B54</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D54" s="19" t="s">
+      <c r="C54" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D54" t="s">
         <v>461</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19" t="s">
+      <c r="H54" t="s">
         <v>370</v>
       </c>
-      <c r="I54" s="20" t="str">
-        <f t="array" ref="I54">H54&amp;D54</f>
-        <v>A. URBANO Asdesur I</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-    </row>
-    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="I54" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>441</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" t="s">
         <v>442</v>
       </c>
-      <c r="C55" s="19" t="str">
-        <f t="array" ref="C55">A55 &amp; B55</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D55" s="19" t="s">
+      <c r="C55" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D55" t="s">
         <v>462</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19" t="s">
+      <c r="H55" t="s">
         <v>370</v>
       </c>
-      <c r="I55" s="20" t="str">
-        <f t="array" ref="I55">H55&amp;D55</f>
-        <v>A. URBANO Asdesur II</v>
-      </c>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-    </row>
-    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="I55" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>441</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" t="s">
         <v>442</v>
       </c>
-      <c r="C56" s="19" t="str">
-        <f t="array" ref="C56">A56 &amp; B56</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D56" s="19" t="s">
+      <c r="C56" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D56" t="s">
         <v>463</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19" t="s">
+      <c r="H56" t="s">
         <v>370</v>
       </c>
-      <c r="I56" s="20" t="str">
-        <f t="array" ref="I56">H56&amp;D56</f>
-        <v>A. URBANO Garcia Echeverry</v>
-      </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-    </row>
-    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="I56" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>441</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" t="s">
         <v>442</v>
       </c>
-      <c r="C57" s="19" t="str">
-        <f t="array" ref="C57">A57 &amp; B57</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D57" s="19" t="s">
+      <c r="C57" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D57" t="s">
         <v>464</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19" t="s">
+      <c r="H57" t="s">
         <v>370</v>
       </c>
-      <c r="I57" s="20" t="str">
-        <f t="array" ref="I57">H57&amp;D57</f>
-        <v>A. URBANO Villa Esperanza I y II</v>
-      </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-    </row>
-    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="I57" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>441</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" t="s">
         <v>442</v>
       </c>
-      <c r="C58" s="19" t="str">
-        <f t="array" ref="C58">A58 &amp; B58</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D58" s="19" t="s">
+      <c r="C58" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D58" t="s">
         <v>465</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19" t="s">
+      <c r="H58" t="s">
         <v>370</v>
       </c>
-      <c r="I58" s="20" t="str">
-        <f t="array" ref="I58">H58&amp;D58</f>
-        <v>A. URBANO Transuratoque</v>
-      </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
-    </row>
-    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="I58" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>441</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" t="s">
         <v>442</v>
       </c>
-      <c r="C59" s="19" t="str">
-        <f t="array" ref="C59">A59 &amp; B59</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D59" s="19" t="s">
+      <c r="C59" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D59" t="s">
         <v>466</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19" t="s">
+      <c r="H59" t="s">
         <v>370</v>
       </c>
-      <c r="I59" s="20" t="str">
-        <f t="array" ref="I59">H59&amp;D59</f>
-        <v>A. URBANO El Paramo</v>
-      </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-    </row>
-    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="I59" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>441</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" t="s">
         <v>442</v>
       </c>
-      <c r="C60" s="19" t="str">
-        <f t="array" ref="C60">A60 &amp; B60</f>
-        <v>28. La Cumbre - Carmen</v>
-      </c>
-      <c r="D60" s="19" t="s">
+      <c r="C60" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D60" t="s">
         <v>467</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19" t="s">
+      <c r="H60" t="s">
         <v>370</v>
       </c>
-      <c r="I60" s="20" t="str">
-        <f t="array" ref="I60">H60&amp;D60</f>
-        <v>A. URBANO Asomiflor</v>
-      </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-    </row>
-    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="I60" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>468</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>469</v>
       </c>
-      <c r="C61" s="5" t="str">
-        <f t="array" ref="C61">A61 &amp; B61</f>
-        <v>26. Lagos - Bellavista</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D61" t="s">
         <v>470</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5" t="s">
+      <c r="F61" t="s">
         <v>471</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5" t="s">
+      <c r="H61" t="s">
         <v>372</v>
       </c>
-      <c r="I61" s="4" t="str">
-        <f t="array" ref="I61">H61&amp;D61</f>
-        <v>BARRIO bellavista</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="I61" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>373</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" t="s">
         <v>374</v>
       </c>
-      <c r="C62" s="5" t="str">
-        <f t="array" ref="C62">A62 &amp; B62</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D62" t="s">
         <v>472</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5" t="s">
+      <c r="F62" t="s">
         <v>473</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
+      <c r="H62" t="s">
         <v>372</v>
       </c>
-      <c r="I62" s="4" t="str">
-        <f t="array" ref="I62">H62&amp;D62</f>
-        <v>BARRIO florida</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="I62" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>468</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>469</v>
       </c>
-      <c r="C63" s="5" t="str">
-        <f t="array" ref="C63">A63 &amp; B63</f>
-        <v>26. Lagos - Bellavista</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D63" t="s">
         <v>474</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5" t="s">
+      <c r="F63" t="s">
         <v>475</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="s">
+      <c r="H63" t="s">
         <v>372</v>
       </c>
-      <c r="I63" s="4" t="str">
-        <f t="array" ref="I63">H63&amp;D63</f>
-        <v>BARRIO lagos</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="I63" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>373</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>374</v>
       </c>
-      <c r="C64" s="5" t="str">
-        <f t="array" ref="C64">A64 &amp; B64</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D64" t="s">
         <v>476</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5" t="s">
+      <c r="F64" t="s">
         <v>477</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5" t="s">
+      <c r="H64" t="s">
         <v>372</v>
       </c>
-      <c r="I64" s="4" t="str">
-        <f t="array" ref="I64">H64&amp;D64</f>
-        <v>BARRIO paraguitas</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="I64" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>373</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>374</v>
       </c>
-      <c r="C65" s="5" t="str">
-        <f t="array" ref="C65">A65 &amp; B65</f>
-        <v>21. Florida - Casco Antiguo</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D65" t="s">
         <v>478</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5" t="s">
+      <c r="H65" t="s">
         <v>372</v>
       </c>
-      <c r="I65" s="4" t="str">
-        <f t="array" ref="I65">H65&amp;D65</f>
-        <v>BARRIO sena</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="I65" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>388</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>389</v>
       </c>
-      <c r="C66" s="5" t="str">
-        <f t="array" ref="C66">A66 &amp; B66</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D66" t="s">
         <v>479</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5" t="s">
+      <c r="F66" t="s">
         <v>480</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5" t="s">
+      <c r="H66" t="s">
         <v>372</v>
       </c>
-      <c r="I66" s="4" t="str">
-        <f t="array" ref="I66">H66&amp;D66</f>
-        <v>BARRIO aranzoque</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="I66" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>388</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>389</v>
       </c>
-      <c r="C67" s="5" t="str">
-        <f t="array" ref="C67">A67 &amp; B67</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D67" t="s">
         <v>481</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="5" t="s">
+      <c r="F67" t="s">
         <v>482</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5" t="s">
+      <c r="H67" t="s">
         <v>372</v>
       </c>
-      <c r="I67" s="4" t="str">
-        <f t="array" ref="I67">H67&amp;D67</f>
-        <v>BARRIO buenos aires</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="I67" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>388</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>389</v>
       </c>
-      <c r="C68" s="5" t="str">
-        <f t="array" ref="C68">A68 &amp; B68</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D68" t="s">
         <v>483</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5" t="s">
+      <c r="F68" t="s">
         <v>484</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5" t="s">
+      <c r="H68" t="s">
         <v>372</v>
       </c>
-      <c r="I68" s="4" t="str">
-        <f t="array" ref="I68">H68&amp;D68</f>
-        <v>BARRIO la paz</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="I68" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>485</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>486</v>
       </c>
-      <c r="C69" s="5" t="str">
-        <f t="array" ref="C69">A69 &amp; B69</f>
-        <v>29. Condominio Ruitoque</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D69" t="s">
         <v>487</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5" t="s">
+      <c r="F69" t="s">
         <v>488</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5" t="s">
+      <c r="H69" t="s">
         <v>372</v>
       </c>
-      <c r="I69" s="4" t="str">
-        <f t="array" ref="I69">H69&amp;D69</f>
-        <v>BARRIO condominio ruitoque</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="I69" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>489</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>490</v>
       </c>
-      <c r="C70" s="5" t="str">
-        <f t="array" ref="C70">A70 &amp; B70</f>
-        <v>27. Villabel-Santa Ana</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D70" t="s">
         <v>491</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="5" t="s">
+      <c r="F70" t="s">
         <v>492</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5" t="s">
+      <c r="H70" t="s">
         <v>372</v>
       </c>
-      <c r="I70" s="4" t="str">
-        <f t="array" ref="I70">H70&amp;D70</f>
-        <v>BARRIO santa ana</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="I70" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>489</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>490</v>
       </c>
-      <c r="C71" s="5" t="str">
-        <f t="array" ref="C71">A71 &amp; B71</f>
-        <v>27. Villabel-Santa Ana</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D71" t="s">
         <v>493</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="5" t="s">
+      <c r="F71" t="s">
         <v>494</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="s">
+      <c r="H71" t="s">
         <v>372</v>
       </c>
-      <c r="I71" s="4" t="str">
-        <f t="array" ref="I71">H71&amp;D71</f>
-        <v>BARRIO villabel</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="I71" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>489</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" t="s">
         <v>490</v>
       </c>
-      <c r="C72" s="19" t="str">
-        <f t="array" ref="C72">A72 &amp; B72</f>
-        <v>27. Villabel-Santa Ana</v>
-      </c>
-      <c r="D72" s="19" t="s">
+      <c r="C72" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D72" t="s">
         <v>495</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
+      <c r="H72" t="s">
         <v>370</v>
       </c>
-      <c r="I72" s="20" t="str">
-        <f t="array" ref="I72">H72&amp;D72</f>
-        <v>A. URBANO La Semilla</v>
-      </c>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
-    </row>
-    <row r="73" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="I72" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>388</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="5" t="str">
-        <f t="array" ref="C73">A73 &amp; B73</f>
-        <v>22. Cañaveral -Versalles</v>
-      </c>
-      <c r="D73" s="18" t="s">
+      <c r="C73" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D73" t="s">
         <v>496</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5" t="s">
+      <c r="F73" t="s">
         <v>497</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5" t="s">
+      <c r="H73" t="s">
         <v>372</v>
       </c>
-      <c r="I73" s="4" t="str">
-        <f t="array" ref="I73">H73&amp;D73</f>
-        <v>BARRIO campestre</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="I73" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>498</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>499</v>
       </c>
-      <c r="C74" s="5" t="str">
-        <f t="array" ref="C74">A74 &amp; B74</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D74" t="s">
         <v>500</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="5" t="s">
+      <c r="H74" t="s">
         <v>501</v>
       </c>
-      <c r="I74" s="4" t="str">
-        <f t="array" ref="I74">H74&amp;D74</f>
-        <v>VEREDA GUAYANAS</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="I74" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>498</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>499</v>
       </c>
-      <c r="C75" s="5" t="str">
-        <f t="array" ref="C75">A75 &amp; B75</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D75" t="s">
         <v>502</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="5" t="s">
+      <c r="H75" t="s">
         <v>501</v>
       </c>
-      <c r="I75" s="4" t="str">
-        <f t="array" ref="I75">H75&amp;D75</f>
-        <v>VEREDA RUITOQUE</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="I75" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>498</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>499</v>
       </c>
-      <c r="C76" s="5" t="str">
-        <f t="array" ref="C76">A76 &amp; B76</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D76" t="s">
         <v>503</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="5" t="s">
+      <c r="H76" t="s">
         <v>501</v>
       </c>
-      <c r="I76" s="4" t="str">
-        <f t="array" ref="I76">H76&amp;D76</f>
-        <v>VEREDA RIO FRIO</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="I76" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>498</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>499</v>
       </c>
-      <c r="C77" s="5" t="str">
-        <f t="array" ref="C77">A77 &amp; B77</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D77" t="s">
         <v>504</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="5" t="s">
+      <c r="H77" t="s">
         <v>501</v>
       </c>
-      <c r="I77" s="4" t="str">
-        <f t="array" ref="I77">H77&amp;D77</f>
-        <v>VEREDA CASIANO</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="I77" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>498</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>499</v>
       </c>
-      <c r="C78" s="5" t="str">
-        <f t="array" ref="C78">A78 &amp; B78</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D78" t="s">
         <v>505</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="5" t="s">
+      <c r="H78" t="s">
         <v>501</v>
       </c>
-      <c r="I78" s="4" t="str">
-        <f t="array" ref="I78">H78&amp;D78</f>
-        <v>VEREDA ALSACIA</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="I78" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>498</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>499</v>
       </c>
-      <c r="C79" s="5" t="str">
-        <f t="array" ref="C79">A79 &amp; B79</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D79" t="s">
         <v>506</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="5" t="s">
+      <c r="H79" t="s">
         <v>501</v>
       </c>
-      <c r="I79" s="4" t="str">
-        <f t="array" ref="I79">H79&amp;D79</f>
-        <v>VEREDA HELECHALES</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="I79" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>498</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>499</v>
       </c>
-      <c r="C80" s="5" t="str">
-        <f t="array" ref="C80">A80 &amp; B80</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D80" t="s">
         <v>507</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="5" t="s">
+      <c r="H80" t="s">
         <v>501</v>
       </c>
-      <c r="I80" s="4" t="str">
-        <f t="array" ref="I80">H80&amp;D80</f>
-        <v>VEREDA VERICUTE</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="I80" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>498</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>499</v>
       </c>
-      <c r="C81" s="5" t="str">
-        <f t="array" ref="C81">A81 &amp; B81</f>
-        <v>30. CORREG</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D81" t="s">
         <v>508</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="5" t="s">
+      <c r="H81" t="s">
         <v>501</v>
       </c>
-      <c r="I81" s="4" t="str">
-        <f t="array" ref="I81">H81&amp;D81</f>
-        <v>VEREDA AGUABLANCA</v>
+      <c r="I81" t="s">
+        <v>1695</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19136,15 +18294,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="20">
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -19152,7 +18310,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="20">
         <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -19160,7 +18318,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -19168,7 +18326,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="20">
         <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -19176,7 +18334,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -19184,7 +18342,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -19192,7 +18350,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="20">
         <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -19200,7 +18358,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="20">
         <v>19</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -19208,7 +18366,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="20">
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -19216,7 +18374,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="20">
         <v>23</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -19224,7 +18382,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="20">
         <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -19232,7 +18390,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="20">
         <v>27</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -19240,7 +18398,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="20">
         <v>41</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -19248,7 +18406,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="20">
         <v>44</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -19256,7 +18414,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="20">
         <v>47</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -19264,7 +18422,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="20">
         <v>50</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -19272,7 +18430,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="20">
         <v>52</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -19280,7 +18438,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <v>54</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -19288,7 +18446,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>63</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -19296,7 +18454,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>66</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -19304,7 +18462,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>68</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -19312,7 +18470,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="20">
         <v>70</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -19320,7 +18478,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="20">
         <v>73</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -19328,7 +18486,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="20">
         <v>76</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -19336,7 +18494,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="20">
         <v>81</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -19344,7 +18502,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="20">
         <v>85</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -19352,7 +18510,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="20">
         <v>86</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -19360,7 +18518,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="20">
         <v>88</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -19368,7 +18526,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="20">
         <v>91</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -19376,7 +18534,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="20">
         <v>94</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -19384,7 +18542,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="20">
         <v>95</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -19392,7 +18550,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="20">
         <v>97</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -19400,7 +18558,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="20">
         <v>99</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -19422,10 +18580,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>595</v>
       </c>
     </row>
